--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B52" s="65">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B53" s="65">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B69" s="65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B70" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
